--- a/software/foras-promineo/foras software.xlsx
+++ b/software/foras-promineo/foras software.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caden\Documents\GitHub\mainboard\software\foras-promineo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Github\mainboard\software\foras-promineo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF22C156-68A1-4492-B924-05EDC00DE0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="811" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="811" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
     <sheet name="Initial Work Plan" sheetId="13" r:id="rId2"/>
     <sheet name="Minimum Functinal Goal" sheetId="16" r:id="rId3"/>
-    <sheet name="tasks" sheetId="1" r:id="rId4"/>
-    <sheet name="ADCS task" sheetId="8" r:id="rId5"/>
-    <sheet name="payload task" sheetId="9" r:id="rId6"/>
-    <sheet name="lora task" sheetId="11" r:id="rId7"/>
-    <sheet name="libs" sheetId="12" r:id="rId8"/>
-    <sheet name="db_cdh" sheetId="2" r:id="rId9"/>
-    <sheet name="cdh" sheetId="3" r:id="rId10"/>
-    <sheet name="pc host software" sheetId="5" r:id="rId11"/>
-    <sheet name="bugs" sheetId="14" r:id="rId12"/>
+    <sheet name="States" sheetId="17" r:id="rId4"/>
+    <sheet name="Tasks" sheetId="1" r:id="rId5"/>
+    <sheet name="adcs_task.py" sheetId="8" r:id="rId6"/>
+    <sheet name="payload_task.py" sheetId="9" r:id="rId7"/>
+    <sheet name="lora_task.py" sheetId="11" r:id="rId8"/>
+    <sheet name="irridium_task.py" sheetId="18" r:id="rId9"/>
+    <sheet name="libs" sheetId="12" r:id="rId10"/>
+    <sheet name="db_cdh.py" sheetId="2" r:id="rId11"/>
+    <sheet name="cdh.py" sheetId="3" r:id="rId12"/>
+    <sheet name="pc host software" sheetId="5" r:id="rId13"/>
+    <sheet name="bugs" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="282">
   <si>
     <t>Task</t>
   </si>
@@ -441,9 +442,6 @@
     <t>interfacing rockblock</t>
   </si>
   <si>
-    <t>Avoid editing if nessesary</t>
-  </si>
-  <si>
     <t>pycubed master library</t>
   </si>
   <si>
@@ -468,9 +466,6 @@
     <t>bit flag lib</t>
   </si>
   <si>
-    <t>Feel free to add as nessesary, but try to avoid bloat.</t>
-  </si>
-  <si>
     <t>start_payload</t>
   </si>
   <si>
@@ -609,9 +604,6 @@
     <t>config.py</t>
   </si>
   <si>
-    <t>loads settings for a task, settable via cdh</t>
-  </si>
-  <si>
     <t>unverified</t>
   </si>
   <si>
@@ -642,9 +634,6 @@
     <t>connects, stopping beacon and listening more</t>
   </si>
   <si>
-    <t>disonnects</t>
-  </si>
-  <si>
     <t>payload_cmd</t>
   </si>
   <si>
@@ -763,13 +752,154 @@
   </si>
   <si>
     <t>Firmware</t>
+  </si>
+  <si>
+    <t>startup</t>
+  </si>
+  <si>
+    <t>idle</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>payload</t>
+  </si>
+  <si>
+    <t>init</t>
+  </si>
+  <si>
+    <t>deploy</t>
+  </si>
+  <si>
+    <t>adcs calibration</t>
+  </si>
+  <si>
+    <t>first radio comm</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>check batteries</t>
+  </si>
+  <si>
+    <t>sos beacon</t>
+  </si>
+  <si>
+    <t>timeout</t>
+  </si>
+  <si>
+    <t>FROM</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>housekeeper</t>
+  </si>
+  <si>
+    <t>automatic transition</t>
+  </si>
+  <si>
+    <t>beacon</t>
+  </si>
+  <si>
+    <t>connected</t>
+  </si>
+  <si>
+    <t>burst</t>
+  </si>
+  <si>
+    <t>receive</t>
+  </si>
+  <si>
+    <t>end startup</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>safe mode is an individual task that will stop all scheduled tasks and not leave itself untill safe mode is disengaged.</t>
+  </si>
+  <si>
+    <t>every state can transition to sleep because housekeeper_task.py (the task that triggers transition) should always be running. (except during safe)</t>
+  </si>
+  <si>
+    <t>the beacon to connected mode transition is initiated through a command.</t>
+  </si>
+  <si>
+    <t>startup tasks is an individual task that will manage execution of several other tasks during the on-orbit startup procedure.</t>
+  </si>
+  <si>
+    <t>the payload receive to payload burst mode transition is initiated through a command</t>
+  </si>
+  <si>
+    <t>the payload burst to payload receive mode transition is initiated through the end of burst mode.</t>
+  </si>
+  <si>
+    <t>the payload receive to beacon mode transition is initated throguh a command OR timeout</t>
+  </si>
+  <si>
+    <t>the payload receive to connected mode transition is initated throguh a command OR timeout</t>
+  </si>
+  <si>
+    <t>the connected mode to payload receive mode transition is initiated throgh a command.</t>
+  </si>
+  <si>
+    <t>connected and payload receive mode are identical EXCEPT that the payload has been commanded on</t>
+  </si>
+  <si>
+    <t>cmd</t>
+  </si>
+  <si>
+    <t>completion</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>timeout or cmd</t>
+  </si>
+  <si>
+    <t>if entered from idle or payload</t>
+  </si>
+  <si>
+    <t>if entered from startup</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>needs to start / end several other tasks</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>exec</t>
+  </si>
+  <si>
+    <t>.bak file or ascii dictionary of values?</t>
+  </si>
+  <si>
+    <t>loads settings for a task</t>
+  </si>
+  <si>
+    <t>probably broken</t>
+  </si>
+  <si>
+    <t>make password protected!</t>
+  </si>
+  <si>
+    <t>disconnects</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -785,8 +915,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -811,8 +971,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -829,11 +1001,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -843,15 +1104,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="30"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="16"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="16"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="16"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="16"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="16"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1165,10 +1502,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -1198,7 +1535,7 @@
         <v>0.75</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C2" t="s">
         <v>53</v>
@@ -1206,7 +1543,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C3" t="s">
         <v>87</v>
@@ -1214,7 +1551,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C4" t="s">
         <v>91</v>
@@ -1222,7 +1559,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C5" t="s">
         <v>89</v>
@@ -1230,7 +1567,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C6" t="s">
         <v>90</v>
@@ -1238,18 +1575,18 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1258,11 +1595,467 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="5" max="5" width="120.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" t="s">
+        <v>278</v>
+      </c>
+      <c r="E20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="89" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,6 +2105,9 @@
       <c r="C3" t="s">
         <v>20</v>
       </c>
+      <c r="D3" t="s">
+        <v>280</v>
+      </c>
       <c r="E3" t="s">
         <v>61</v>
       </c>
@@ -1326,6 +2122,9 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
+      <c r="D4" t="s">
+        <v>280</v>
+      </c>
       <c r="E4" t="s">
         <v>61</v>
       </c>
@@ -1340,61 +2139,64 @@
       <c r="C5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>280</v>
+      </c>
       <c r="E5" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>195</v>
+        <v>139</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>196</v>
+        <v>189</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>197</v>
+        <v>190</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>198</v>
+        <v>191</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>200</v>
+        <v>195</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>201</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>202</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="33"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="9"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -1418,7 +2220,7 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
@@ -1441,8 +2243,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1483,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1491,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1516,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1676,7 +2478,7 @@
         <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1684,10 +2486,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C23" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1695,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1703,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -1711,12 +2513,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1738,7 +2540,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -1746,16 +2548,16 @@
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" t="s">
         <v>162</v>
       </c>
-      <c r="B2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" t="s">
-        <v>164</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -1764,7 +2566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -1782,10 +2584,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1794,19 +2596,19 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="B2" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1816,16 +2618,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1836,16 +2638,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" t="s">
         <v>151</v>
       </c>
-      <c r="D4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4" t="s">
-        <v>153</v>
-      </c>
       <c r="F4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1856,16 +2658,16 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1873,22 +2675,22 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="B7" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1898,18 +2700,18 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1917,7 +2719,7 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1925,7 +2727,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1943,11 +2745,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1965,42 +2767,63 @@
         <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2009,10 +2832,534 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S41"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="18" width="15.7109375" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+    </row>
+    <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="M2" s="27"/>
+      <c r="N2" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="O2" s="39"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="14"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
+      <c r="D3" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="O3" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="L12" s="10"/>
+      <c r="M12" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c r="N13" s="11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="P14" s="12"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="N15" s="12"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="N16" s="12"/>
+      <c r="O16" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="P16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="17"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="17"/>
+    </row>
+    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="19"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="29"/>
+      <c r="C21" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="29"/>
+      <c r="C22" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="29"/>
+      <c r="C23" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="C25" s="17"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="17"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="C28" s="11"/>
+      <c r="D28" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="C30" s="16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="C31" t="s">
+        <v>257</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="C32" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="C33" s="15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="C34" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="C35" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="C36" s="15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+      <c r="C37" s="15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="C38" s="15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
+      <c r="C39" s="15" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
+      <c r="C40" s="15" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B7:B11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2289,10 +3636,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F13" s="3"/>
     </row>
@@ -2301,10 +3648,10 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F14" s="3"/>
     </row>
@@ -2313,10 +3660,10 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2324,10 +3671,13 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C16" t="s">
-        <v>212</v>
+        <v>208</v>
+      </c>
+      <c r="D16" t="s">
+        <v>274</v>
       </c>
       <c r="I16" t="s">
         <v>10</v>
@@ -2349,12 +3699,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2387,12 +3737,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2422,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2430,7 +3780,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2438,45 +3788,66 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
       <c r="C5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
       <c r="C6" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
       <c r="C7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
       <c r="C8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>218</v>
-      </c>
       <c r="D9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
       <c r="C10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2484,8 +3855,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2519,7 +3890,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2527,7 +3898,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2535,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2559,7 +3930,7 @@
         <v>0.5</v>
       </c>
       <c r="C7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2571,318 +3942,43 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
       <c r="C9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
       <c r="C10" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
       <c r="C11" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
+      </c>
       <c r="C12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
       <c r="C13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.5703125" customWidth="1"/>
-    <col min="5" max="5" width="120.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.75</v>
-      </c>
-      <c r="B8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0.9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0.9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0.9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>0.9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0.9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0.75</v>
-      </c>
-      <c r="B16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>0.9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>127</v>
-      </c>
-      <c r="C19" t="s">
-        <v>128</v>
-      </c>
-      <c r="E19" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>0.5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>186</v>
-      </c>
-      <c r="C20" t="s">
-        <v>187</v>
-      </c>
-      <c r="E20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>140</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2891,172 +3987,132 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" customWidth="1"/>
-    <col min="5" max="5" width="89" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="67" customWidth="1"/>
+    <col min="4" max="4" width="72.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>189</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>102</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>29</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>32</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" t="s">
-        <v>99</v>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/software/foras-promineo/foras software.xlsx
+++ b/software/foras-promineo/foras software.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="811" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="811" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="285">
   <si>
     <t>Task</t>
   </si>
@@ -893,6 +893,15 @@
   </si>
   <si>
     <t>disconnects</t>
+  </si>
+  <si>
+    <t>openMV programming</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>init2</t>
   </si>
 </sst>
 </file>
@@ -984,7 +993,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1090,11 +1099,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1107,12 +1129,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1137,6 +1153,40 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="16"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="16"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="16"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1146,54 +1196,74 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="16"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="16"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="16"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="16"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1204,6 +1274,29 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="C3:P16" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="C3:P16"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="Column1" dataDxfId="3"/>
+    <tableColumn id="2" name="sleep" dataDxfId="2"/>
+    <tableColumn id="3" name="check batteries"/>
+    <tableColumn id="4" name="sos beacon"/>
+    <tableColumn id="5" name="init"/>
+    <tableColumn id="6" name="deploy"/>
+    <tableColumn id="7" name="adcs calibration"/>
+    <tableColumn id="8" name="first radio comm"/>
+    <tableColumn id="9" name="end startup"/>
+    <tableColumn id="10" name="beacon"/>
+    <tableColumn id="11" name="connected"/>
+    <tableColumn id="12" name="init2" dataDxfId="1"/>
+    <tableColumn id="13" name="receive"/>
+    <tableColumn id="14" name="burst"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1975,7 +2068,7 @@
       <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="25" t="s">
         <v>279</v>
       </c>
     </row>
@@ -2193,7 +2286,7 @@
       <c r="C11" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="D11" s="33"/>
+      <c r="D11" s="23"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="7"/>
@@ -2603,12 +2696,12 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -2685,12 +2778,12 @@
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -2746,7 +2839,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
@@ -2826,6 +2919,14 @@
         <v>177</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>282</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2835,8 +2936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2844,502 +2945,505 @@
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="18" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="18" width="15.7109375" customWidth="1"/>
     <col min="19" max="19" width="9.140625" customWidth="1"/>
     <col min="21" max="21" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="37" t="s">
         <v>248</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="40" t="s">
         <v>237</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27" t="s">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27" t="s">
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40" t="s">
         <v>236</v>
       </c>
-      <c r="M2" s="27"/>
-      <c r="N2" s="38" t="s">
+      <c r="M2" s="40"/>
+      <c r="N2" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="O2" s="39"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="14"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="12"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="D3" s="25" t="s">
+      <c r="A3" s="35"/>
+      <c r="C3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="35"/>
+      <c r="B4" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="N4" s="10"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="35"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35"/>
+      <c r="B7" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="D7" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="35"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="35"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="35"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="35"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="M13" s="8"/>
+      <c r="N13" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35"/>
+      <c r="B14" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="P14" s="10"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="35"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="D15" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="N15" s="10"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="36"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="20" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="26" t="s">
+      <c r="D16" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="N16" s="10"/>
+      <c r="O16" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="15"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="15"/>
+    </row>
+    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="D20" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="N5" s="12"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="N6" s="12"/>
-    </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="26" t="s">
+      <c r="E20" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="N7" s="12"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="N8" s="12"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="K9" s="12"/>
-      <c r="N9" s="12"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="H10" s="25"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="N10" s="12"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="N11" s="12"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="26" t="s">
+      <c r="F20" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="N12" s="12"/>
-    </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="M13" s="10"/>
-      <c r="N13" s="11" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="34" t="s">
+      <c r="G20" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="C14" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="P14" s="12"/>
-    </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="N15" s="12"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="11" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="N16" s="12"/>
-      <c r="O16" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="P16" s="10"/>
-    </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="17"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="17"/>
-    </row>
-    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-    </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="D20" s="32" t="s">
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="39"/>
+      <c r="C21" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="39"/>
+      <c r="C22" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="D22" s="9"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="39"/>
+      <c r="C23" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="G20" s="32" t="s">
+      <c r="D23" s="9"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="29"/>
-      <c r="C21" s="31" t="s">
-        <v>237</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="29"/>
-      <c r="C22" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="29"/>
-      <c r="C23" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="10"/>
+      <c r="D24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="C25" s="17"/>
+      <c r="A25" s="17"/>
+      <c r="C25" s="15"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
+      <c r="A26" s="17"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="17"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="15"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="C28" s="11"/>
+      <c r="A28" s="17"/>
+      <c r="C28" s="9"/>
       <c r="D28" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
+      <c r="A29" s="17"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="C30" s="16" t="s">
+      <c r="A30" s="17"/>
+      <c r="C30" s="14" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
+      <c r="A31" s="17"/>
       <c r="C31" t="s">
         <v>257</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
+      <c r="A32" s="17"/>
       <c r="C32" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="C33" s="15" t="s">
+      <c r="A33" s="17"/>
+      <c r="C33" s="13" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="C34" s="15" t="s">
+      <c r="A34" s="17"/>
+      <c r="C34" s="13" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="C35" s="15" t="s">
+      <c r="A35" s="17"/>
+      <c r="C35" s="13" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="C36" s="15" t="s">
+      <c r="A36" s="17"/>
+      <c r="C36" s="13" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="C37" s="15" t="s">
+      <c r="A37" s="17"/>
+      <c r="C37" s="13" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-      <c r="C38" s="15" t="s">
+      <c r="A38" s="17"/>
+      <c r="C38" s="13" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
-      <c r="C39" s="15" t="s">
+      <c r="A39" s="17"/>
+      <c r="C39" s="13" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
-      <c r="C40" s="15" t="s">
+      <c r="A40" s="17"/>
+      <c r="C40" s="13" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
+      <c r="A41" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="B1:P1"/>
-    <mergeCell ref="C19:G19"/>
     <mergeCell ref="B20:B24"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="B12:B13"/>
@@ -3347,9 +3451,17 @@
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="C19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -3357,7 +3469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
